--- a/Code/Results/Cases/Case_2_216/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_216/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.05347098114338</v>
+        <v>17.20634126269098</v>
       </c>
       <c r="C2">
-        <v>6.809127821430833</v>
+        <v>4.797472585559071</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.071221048527782</v>
+        <v>9.500935766553042</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.140048831030677</v>
+        <v>3.734061416682816</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.15788414333131</v>
+        <v>32.68088263532354</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.23268465387688</v>
+        <v>15.14775986030986</v>
       </c>
       <c r="L2">
-        <v>7.324024678090756</v>
+        <v>10.51751424675212</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.53188289318833</v>
+        <v>22.94409605711508</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.17981929633313</v>
+        <v>17.04669131259605</v>
       </c>
       <c r="C3">
-        <v>6.318829843434126</v>
+        <v>4.649641312072581</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.957817398002524</v>
+        <v>9.504947920102081</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.14795872123883</v>
+        <v>3.736888249148664</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.06153603036786</v>
+        <v>32.73230220484155</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.57899910999314</v>
+        <v>15.04564818920103</v>
       </c>
       <c r="L3">
-        <v>7.128925305739704</v>
+        <v>10.51025438244832</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.74177045783077</v>
+        <v>23.00387421685611</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.62806129771256</v>
+        <v>16.95236475760775</v>
       </c>
       <c r="C4">
-        <v>6.00268997551552</v>
+        <v>4.55808695872246</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.8902906966649</v>
+        <v>9.508874970841052</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.152944620005001</v>
+        <v>3.738714469603861</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.01870531732574</v>
+        <v>32.76952747332891</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.16948106515238</v>
+        <v>14.98633375597946</v>
       </c>
       <c r="L4">
-        <v>7.011147431885773</v>
+        <v>10.50773741404935</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.87473012699245</v>
+        <v>23.04254969889868</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.39960377469435</v>
+        <v>16.9148964878573</v>
       </c>
       <c r="C5">
-        <v>5.870009318597306</v>
+        <v>4.520646380807237</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.863321314055645</v>
+        <v>9.510843843397264</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.155010236034946</v>
+        <v>3.739481513601824</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.00519043914327</v>
+        <v>32.78611582951385</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.00075509145962</v>
+        <v>14.96303486658417</v>
       </c>
       <c r="L5">
-        <v>6.963704905574765</v>
+        <v>10.50720093684365</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.92993842296742</v>
+        <v>23.05880668294295</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.36145859737083</v>
+        <v>16.90873467160718</v>
       </c>
       <c r="C6">
-        <v>5.847743636961989</v>
+        <v>4.514423468050415</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.858876736660404</v>
+        <v>9.511193047496022</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.155355310305393</v>
+        <v>3.739610262732525</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.00317935400428</v>
+        <v>32.78895591489899</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.97263363196935</v>
+        <v>14.95921938692506</v>
       </c>
       <c r="L6">
-        <v>6.95586188877138</v>
+        <v>10.50714143263944</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.9391676757467</v>
+        <v>23.06153614483782</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.62499450249713</v>
+        <v>16.95185546576045</v>
       </c>
       <c r="C7">
-        <v>6.000916261905129</v>
+        <v>4.557582464070607</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.889924733006334</v>
+        <v>9.508900030785107</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.152972338973126</v>
+        <v>3.738724721627222</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.01850732163967</v>
+        <v>32.76974544922793</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.16721273508906</v>
+        <v>14.98601597995362</v>
       </c>
       <c r="L7">
-        <v>7.010505304204218</v>
+        <v>10.50772819673131</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.87547053159515</v>
+        <v>23.04276693545912</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.75554841521983</v>
+        <v>17.15055100874783</v>
       </c>
       <c r="C8">
-        <v>6.643171750809719</v>
+        <v>4.746701764345418</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.031694585173582</v>
+        <v>9.502015745678825</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.142750176493379</v>
+        <v>3.735017365762915</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.12117395714996</v>
+        <v>32.69743708362248</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.00909818324514</v>
+        <v>15.11186315365264</v>
       </c>
       <c r="L8">
-        <v>7.256363757240797</v>
+        <v>10.51460908147497</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.6034020947923</v>
+        <v>22.96429879803712</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.84277086284621</v>
+        <v>17.56768145691151</v>
       </c>
       <c r="C9">
-        <v>7.785523044099116</v>
+        <v>5.108639460000029</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.325547265515517</v>
+        <v>9.500101506645008</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.12366475738342</v>
+        <v>3.728461998372236</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.45958018656129</v>
+        <v>32.60061843079068</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.58816732209156</v>
+        <v>15.38446768175655</v>
       </c>
       <c r="L9">
-        <v>7.752560310655138</v>
+        <v>10.54343642941255</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.10248729231012</v>
+        <v>22.82603421739135</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.28950736135173</v>
+        <v>17.88830870162573</v>
       </c>
       <c r="C10">
-        <v>8.557381397033934</v>
+        <v>5.365822948130824</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.550017021443965</v>
+        <v>9.505717128372373</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.110130088168019</v>
+        <v>3.72407645712029</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.80223061249</v>
+        <v>32.55705936853931</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.71959902873119</v>
+        <v>15.59903418584196</v>
       </c>
       <c r="L10">
-        <v>8.123427280621751</v>
+        <v>10.57386313193071</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.75477709522646</v>
+        <v>22.73392348189002</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.92804320649112</v>
+        <v>18.03667182410747</v>
       </c>
       <c r="C11">
-        <v>8.894833170747754</v>
+        <v>5.480323473282117</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.653794264689772</v>
+        <v>9.509785610412704</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.104054667583814</v>
+        <v>3.722173805897199</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.98082789072788</v>
+        <v>32.5432582708651</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.32187849104612</v>
+        <v>15.69941505919248</v>
       </c>
       <c r="L11">
-        <v>8.293140305828155</v>
+        <v>10.58968585543347</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.60117539405655</v>
+        <v>22.69406749970372</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.16700299955374</v>
+        <v>18.09316487341578</v>
       </c>
       <c r="C12">
-        <v>9.020737727123034</v>
+        <v>5.523279356270188</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.693317085412216</v>
+        <v>9.511542786412567</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.101763599398764</v>
+        <v>3.721466519799878</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.05191991602037</v>
+        <v>32.53889869434875</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.54612954340376</v>
+        <v>15.73779628424933</v>
       </c>
       <c r="L12">
-        <v>8.357527548410046</v>
+        <v>10.59595965334796</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.54368965778649</v>
+        <v>22.67926863378396</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.11566505461201</v>
+        <v>18.08098503503335</v>
       </c>
       <c r="C13">
-        <v>8.993704163495075</v>
+        <v>5.514046620322814</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.68479535321085</v>
+        <v>9.51115473675323</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.102256633411689</v>
+        <v>3.721618260315867</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.03645189688201</v>
+        <v>32.5397990399311</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.49800105928539</v>
+        <v>15.7295142605497</v>
       </c>
       <c r="L13">
-        <v>8.343655538645271</v>
+        <v>10.59459598173239</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.55603957946841</v>
+        <v>22.68244277727421</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.94775950277656</v>
+        <v>18.04131358921584</v>
       </c>
       <c r="C14">
-        <v>8.90522860331949</v>
+        <v>5.483865794348175</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.657041403572202</v>
+        <v>9.509925841866131</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.103866001550394</v>
+        <v>3.722115352784123</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.98660617900322</v>
+        <v>32.54288222887591</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.34040363342644</v>
+        <v>15.70256547906694</v>
       </c>
       <c r="L14">
-        <v>8.298435175603904</v>
+        <v>10.59019636868529</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.59643223206736</v>
+        <v>22.69284410371778</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.84454254858384</v>
+        <v>18.01705273333585</v>
       </c>
       <c r="C15">
-        <v>8.850792430306347</v>
+        <v>5.465325445863559</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.640070170926549</v>
+        <v>9.509201270184631</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.104852963370004</v>
+        <v>3.722421553987551</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.95653081998494</v>
+        <v>32.54488367534934</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.24337674137034</v>
+        <v>15.68610575796137</v>
       </c>
       <c r="L15">
-        <v>8.270751524831233</v>
+        <v>10.58753812377583</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.62126320721809</v>
+        <v>22.69925345630537</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.24738063160937</v>
+        <v>17.87865906396031</v>
       </c>
       <c r="C16">
-        <v>8.535060121648103</v>
+        <v>5.358285993106724</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.543267110584733</v>
+        <v>9.505481610083146</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.110528591874221</v>
+        <v>3.724202651930217</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.79103252834783</v>
+        <v>32.55808248122742</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.67969799400462</v>
+        <v>15.59252734887475</v>
       </c>
       <c r="L16">
-        <v>8.112354138898072</v>
+        <v>10.57286871404911</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.76490911940007</v>
+        <v>22.73656929028224</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.87599674918075</v>
+        <v>17.79436626043908</v>
       </c>
       <c r="C17">
-        <v>8.337925274137733</v>
+        <v>5.291949056237369</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.484296621103534</v>
+        <v>9.503586674058392</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.114029818469616</v>
+        <v>3.725318899195649</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.695460701433</v>
+        <v>32.56772124588272</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.37929484164227</v>
+        <v>15.53580949285453</v>
       </c>
       <c r="L17">
-        <v>8.015420401355058</v>
+        <v>10.56437506302864</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.85421654206251</v>
+        <v>22.75998497119373</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.66054169576199</v>
+        <v>17.74612233415838</v>
       </c>
       <c r="C18">
-        <v>8.223246321367652</v>
+        <v>5.253561462840419</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.450535789998722</v>
+        <v>9.50263933059685</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.116051450241695</v>
+        <v>3.725969632219943</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.64261733092624</v>
+        <v>32.57383120047819</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.21387679132268</v>
+        <v>15.50344975814172</v>
       </c>
       <c r="L18">
-        <v>7.959762151395923</v>
+        <v>10.55967643308741</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.90601261361489</v>
+        <v>22.77364562235558</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.58727668041584</v>
+        <v>17.72983033545265</v>
       </c>
       <c r="C19">
-        <v>8.184193596611417</v>
+        <v>5.240525606116127</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.439132486093818</v>
+        <v>9.502343097158063</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.116737345691158</v>
+        <v>3.726191455233952</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.62508498808754</v>
+        <v>32.57599707681263</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.15767863137406</v>
+        <v>15.49253935018894</v>
       </c>
       <c r="L19">
-        <v>7.940934463032309</v>
+        <v>10.55811770497786</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.92362294099993</v>
+        <v>22.77830397196986</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.91572240050256</v>
+        <v>17.80331498922034</v>
       </c>
       <c r="C20">
-        <v>8.35904376256306</v>
+        <v>5.299035119021853</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.490557952175384</v>
+        <v>9.50377364548779</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.113656312757502</v>
+        <v>3.725199173183591</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.70541296456633</v>
+        <v>32.5666365909733</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.40981917157794</v>
+        <v>15.54182021157974</v>
       </c>
       <c r="L20">
-        <v>8.025729477339867</v>
+        <v>10.56525992441383</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.84466509312683</v>
+        <v>22.75747240479805</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.99715452726605</v>
+        <v>18.05295800491938</v>
       </c>
       <c r="C21">
-        <v>8.931266361306427</v>
+        <v>5.492741902936666</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.665187418655846</v>
+        <v>9.510280931417077</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.103393049920953</v>
+        <v>3.721968986837671</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.00115156932236</v>
+        <v>32.54195308967162</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.38679653854671</v>
+        <v>15.71047120973139</v>
       </c>
       <c r="L21">
-        <v>8.31171437172163</v>
+        <v>10.59148101035983</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.58454927027149</v>
+        <v>22.68978101360376</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.69790052792691</v>
+        <v>18.2179048280769</v>
       </c>
       <c r="C22">
-        <v>9.294327141563089</v>
+        <v>5.616974138922862</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.780622456697005</v>
+        <v>9.51579529642709</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.096739987203525</v>
+        <v>3.719934817790531</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.21470232465999</v>
+        <v>32.53087280379226</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.03253477377306</v>
+        <v>15.82283202367108</v>
       </c>
       <c r="L22">
-        <v>8.49931939970303</v>
+        <v>10.61026064125042</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.41852654869821</v>
+        <v>22.64725267302021</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.32051194133032</v>
+        <v>18.12972212433323</v>
       </c>
       <c r="C23">
-        <v>9.101523986391875</v>
+        <v>5.550899095208331</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.7188973574027</v>
+        <v>9.512737167400557</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.100286630242262</v>
+        <v>3.721013475901505</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.09880612155578</v>
+        <v>32.5363238143217</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.68988451260379</v>
+        <v>15.76267729579057</v>
       </c>
       <c r="L23">
-        <v>8.399133144579503</v>
+        <v>10.60008831233058</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.50676296942992</v>
+        <v>22.66979434703008</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.89776847882603</v>
+        <v>17.79926858879234</v>
       </c>
       <c r="C24">
-        <v>8.349500284968702</v>
+        <v>5.295832284088608</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.48772676066281</v>
+        <v>9.503688673066307</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.113825147337026</v>
+        <v>3.725253273311026</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.70090701325138</v>
+        <v>32.56712519263147</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.39602283149171</v>
+        <v>15.53910199049862</v>
       </c>
       <c r="L24">
-        <v>8.021068523385152</v>
+        <v>10.56485930372254</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.84898189677252</v>
+        <v>22.75860771712702</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.29296426469357</v>
+        <v>17.45215718591767</v>
       </c>
       <c r="C25">
-        <v>7.488631555575687</v>
+        <v>5.01203897168057</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.244471443908965</v>
+        <v>9.499382796996708</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.128734710209357</v>
+        <v>3.73015940327246</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.35228572105382</v>
+        <v>32.62197828381396</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.16954089948014</v>
+        <v>15.3081025471622</v>
       </c>
       <c r="L25">
-        <v>7.617070641347547</v>
+        <v>10.53400554682491</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.23447453613156</v>
+        <v>22.86177187419883</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_216/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_216/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.20634126269098</v>
+        <v>16.05347098114339</v>
       </c>
       <c r="C2">
-        <v>4.797472585559071</v>
+        <v>6.809127821430909</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.500935766553042</v>
+        <v>6.071221048527743</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.734061416682816</v>
+        <v>2.140048831030679</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.68088263532354</v>
+        <v>23.15788414333133</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.14775986030986</v>
+        <v>13.23268465387687</v>
       </c>
       <c r="L2">
-        <v>10.51751424675212</v>
+        <v>7.324024678090735</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.94409605711508</v>
+        <v>15.53188289318838</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.04669131259605</v>
+        <v>15.17981929633319</v>
       </c>
       <c r="C3">
-        <v>4.649641312072581</v>
+        <v>6.31882984343409</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.504947920102081</v>
+        <v>5.957817398002511</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.736888249148664</v>
+        <v>2.147958721238564</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.73230220484155</v>
+        <v>23.06153603036806</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.04564818920103</v>
+        <v>12.57899910999321</v>
       </c>
       <c r="L3">
-        <v>10.51025438244832</v>
+        <v>7.128925305739712</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>23.00387421685611</v>
+        <v>15.7417704578309</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.95236475760775</v>
+        <v>14.6280612977126</v>
       </c>
       <c r="C4">
-        <v>4.55808695872246</v>
+        <v>6.002689975515569</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.508874970841052</v>
+        <v>5.890290696664911</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.738714469603861</v>
+        <v>2.152944620005271</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.76952747332891</v>
+        <v>23.01870531732591</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.98633375597946</v>
+        <v>12.1694810651524</v>
       </c>
       <c r="L4">
-        <v>10.50773741404935</v>
+        <v>7.011147431885742</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.04254969889868</v>
+        <v>15.87473012699251</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.9148964878573</v>
+        <v>14.39960377469444</v>
       </c>
       <c r="C5">
-        <v>4.520646380807237</v>
+        <v>5.87000931859739</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.510843843397264</v>
+        <v>5.863321314055583</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.739481513601824</v>
+        <v>2.155010236034814</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.78611582951385</v>
+        <v>23.00519043914343</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.96303486658417</v>
+        <v>12.00075509145969</v>
       </c>
       <c r="L5">
-        <v>10.50720093684365</v>
+        <v>6.963704905574709</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>23.05880668294295</v>
+        <v>15.92993842296746</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.90873467160718</v>
+        <v>14.36145859737088</v>
       </c>
       <c r="C6">
-        <v>4.514423468050415</v>
+        <v>5.847743636962015</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.511193047496022</v>
+        <v>5.858876736660458</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.739610262732525</v>
+        <v>2.155355310305793</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.78895591489899</v>
+        <v>23.00317935400426</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.95921938692506</v>
+        <v>11.97263363196935</v>
       </c>
       <c r="L6">
-        <v>10.50714143263944</v>
+        <v>6.955861888771392</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>23.06153614483782</v>
+        <v>15.93916767574664</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.95185546576045</v>
+        <v>14.62499450249711</v>
       </c>
       <c r="C7">
-        <v>4.557582464070607</v>
+        <v>6.000916261905108</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.508900030785107</v>
+        <v>5.889924733006281</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.738724721627222</v>
+        <v>2.152972338972992</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.76974544922793</v>
+        <v>23.01850732163949</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.98601597995362</v>
+        <v>12.16721273508903</v>
       </c>
       <c r="L7">
-        <v>10.50772819673131</v>
+        <v>7.010505304204197</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.04276693545912</v>
+        <v>15.87547053159506</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.15055100874783</v>
+        <v>15.75554841521985</v>
       </c>
       <c r="C8">
-        <v>4.746701764345418</v>
+        <v>6.643171750809694</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.502015745678825</v>
+        <v>6.031694585173632</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.735017365762915</v>
+        <v>2.142750176493113</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.69743708362248</v>
+        <v>23.12117395714999</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.11186315365264</v>
+        <v>13.00909818324515</v>
       </c>
       <c r="L8">
-        <v>10.51460908147497</v>
+        <v>7.256363757240831</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.96429879803712</v>
+        <v>15.60340209479232</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.56768145691151</v>
+        <v>17.84277086284625</v>
       </c>
       <c r="C9">
-        <v>5.108639460000029</v>
+        <v>7.785523044099052</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.500101506645008</v>
+        <v>6.325547265515508</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.728461998372236</v>
+        <v>2.12366475738342</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.60061843079068</v>
+        <v>23.45958018656145</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.38446768175655</v>
+        <v>14.58816732209159</v>
       </c>
       <c r="L9">
-        <v>10.54343642941255</v>
+        <v>7.752560310655126</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.82603421739135</v>
+        <v>15.10248729231019</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.88830870162573</v>
+        <v>19.28950736135173</v>
       </c>
       <c r="C10">
-        <v>5.365822948130824</v>
+        <v>8.557381397033978</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.505717128372373</v>
+        <v>6.550017021444075</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.72407645712029</v>
+        <v>2.110130088168281</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.55705936853931</v>
+        <v>23.80223061249005</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.59903418584196</v>
+        <v>15.71959902873117</v>
       </c>
       <c r="L10">
-        <v>10.57386313193071</v>
+        <v>8.123427280621776</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.73392348189002</v>
+        <v>14.75477709522651</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.03667182410747</v>
+        <v>19.92804320649114</v>
       </c>
       <c r="C11">
-        <v>5.480323473282117</v>
+        <v>8.894833170747701</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.509785610412704</v>
+        <v>6.65379426468972</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.722173805897199</v>
+        <v>2.104054667583947</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.5432582708651</v>
+        <v>23.98082789072793</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.69941505919248</v>
+        <v>16.32187849104609</v>
       </c>
       <c r="L11">
-        <v>10.58968585543347</v>
+        <v>8.293140305828139</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.69406749970372</v>
+        <v>14.60117539405653</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.09316487341578</v>
+        <v>20.16700299955372</v>
       </c>
       <c r="C12">
-        <v>5.523279356270188</v>
+        <v>9.02073772712315</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.511542786412567</v>
+        <v>6.693317085412273</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.721466519799878</v>
+        <v>2.10176359939863</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.53889869434875</v>
+        <v>24.05191991602054</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.73779628424933</v>
+        <v>16.54612954340368</v>
       </c>
       <c r="L12">
-        <v>10.59595965334796</v>
+        <v>8.357527548410038</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.67926863378396</v>
+        <v>14.54368965778658</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.08098503503335</v>
+        <v>20.11566505461201</v>
       </c>
       <c r="C13">
-        <v>5.514046620322814</v>
+        <v>8.993704163495018</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.51115473675323</v>
+        <v>6.684795353210826</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.721618260315867</v>
+        <v>2.102256633411686</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.5397990399311</v>
+        <v>24.03645189688196</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.7295142605497</v>
+        <v>16.49800105928538</v>
       </c>
       <c r="L13">
-        <v>10.59459598173239</v>
+        <v>8.343655538645288</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.68244277727421</v>
+        <v>14.55603957946844</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.04131358921584</v>
+        <v>19.94775950277656</v>
       </c>
       <c r="C14">
-        <v>5.483865794348175</v>
+        <v>8.905228603319422</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.509925841866131</v>
+        <v>6.657041403572187</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.722115352784123</v>
+        <v>2.103866001550259</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.54288222887591</v>
+        <v>23.98660617900312</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.70256547906694</v>
+        <v>16.3404036334265</v>
       </c>
       <c r="L14">
-        <v>10.59019636868529</v>
+        <v>8.298435175603888</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.69284410371778</v>
+        <v>14.59643223206728</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.01705273333585</v>
+        <v>19.84454254858383</v>
       </c>
       <c r="C15">
-        <v>5.465325445863559</v>
+        <v>8.850792430306088</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.509201270184631</v>
+        <v>6.640070170926411</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.722421553987551</v>
+        <v>2.104852963369741</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.54488367534934</v>
+        <v>23.95653081998502</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.68610575796137</v>
+        <v>16.24337674137028</v>
       </c>
       <c r="L15">
-        <v>10.58753812377583</v>
+        <v>8.2707515248312</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.69925345630537</v>
+        <v>14.62126320721813</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.87865906396031</v>
+        <v>19.24738063160941</v>
       </c>
       <c r="C16">
-        <v>5.358285993106724</v>
+        <v>8.535060121648085</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.505481610083146</v>
+        <v>6.543267110584694</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.724202651930217</v>
+        <v>2.110528591874224</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.55808248122742</v>
+        <v>23.79103252834815</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.59252734887475</v>
+        <v>15.67969799400456</v>
       </c>
       <c r="L16">
-        <v>10.57286871404911</v>
+        <v>8.112354138898095</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.73656929028224</v>
+        <v>14.76490911940034</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.79436626043908</v>
+        <v>18.87599674918076</v>
       </c>
       <c r="C17">
-        <v>5.291949056237369</v>
+        <v>8.337925274137651</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.503586674058392</v>
+        <v>6.48429662110347</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.725318899195649</v>
+        <v>2.114029818469485</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.56772124588272</v>
+        <v>23.69546070143305</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.53580949285453</v>
+        <v>15.37929484164228</v>
       </c>
       <c r="L17">
-        <v>10.56437506302864</v>
+        <v>8.015420401355048</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.75998497119373</v>
+        <v>14.85421654206252</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.74612233415838</v>
+        <v>18.66054169576198</v>
       </c>
       <c r="C18">
-        <v>5.253561462840419</v>
+        <v>8.223246321367588</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.50263933059685</v>
+        <v>6.450535789998613</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.725969632219943</v>
+        <v>2.116051450241427</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.57383120047819</v>
+        <v>23.64261733092618</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.50344975814172</v>
+        <v>15.21387679132266</v>
       </c>
       <c r="L18">
-        <v>10.55967643308741</v>
+        <v>7.959762151395906</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.77364562235558</v>
+        <v>14.90601261361489</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.72983033545265</v>
+        <v>18.58727668041587</v>
       </c>
       <c r="C19">
-        <v>5.240525606116127</v>
+        <v>8.184193596611417</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.502343097158063</v>
+        <v>6.439132486093735</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.726191455233952</v>
+        <v>2.116737345690895</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.57599707681263</v>
+        <v>23.62508498808787</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.49253935018894</v>
+        <v>15.15767863137411</v>
       </c>
       <c r="L19">
-        <v>10.55811770497786</v>
+        <v>7.940934463032241</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.77830397196986</v>
+        <v>14.92362294100008</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.80331498922034</v>
+        <v>18.91572240050257</v>
       </c>
       <c r="C20">
-        <v>5.299035119021853</v>
+        <v>8.359043762563045</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.50377364548779</v>
+        <v>6.490557952175386</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.725199173183591</v>
+        <v>2.11365631275777</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.5666365909733</v>
+        <v>23.7054129645664</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.54182021157974</v>
+        <v>15.40981917157795</v>
       </c>
       <c r="L20">
-        <v>10.56525992441383</v>
+        <v>8.025729477339841</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.75747240479805</v>
+        <v>14.84466509312687</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.05295800491938</v>
+        <v>19.99715452726606</v>
       </c>
       <c r="C21">
-        <v>5.492741902936666</v>
+        <v>8.931266361306404</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.510280931417077</v>
+        <v>6.665187418655817</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.721968986837671</v>
+        <v>2.10339304992109</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.54195308967162</v>
+        <v>24.00115156932245</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.71047120973139</v>
+        <v>16.38679653854671</v>
       </c>
       <c r="L21">
-        <v>10.59148101035983</v>
+        <v>8.311714371721605</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.68978101360376</v>
+        <v>14.58454927027156</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.2179048280769</v>
+        <v>20.6979005279269</v>
       </c>
       <c r="C22">
-        <v>5.616974138922862</v>
+        <v>9.294327141563073</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.51579529642709</v>
+        <v>6.780622456697039</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.719934817790531</v>
+        <v>2.096739987203524</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.53087280379226</v>
+        <v>24.21470232465994</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.82283202367108</v>
+        <v>17.03253477377305</v>
       </c>
       <c r="L22">
-        <v>10.61026064125042</v>
+        <v>8.499319399703047</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.64725267302021</v>
+        <v>14.4185265486982</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.12972212433323</v>
+        <v>20.32051194133032</v>
       </c>
       <c r="C23">
-        <v>5.550899095208331</v>
+        <v>9.101523986391824</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.512737167400557</v>
+        <v>6.718897357402713</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.721013475901505</v>
+        <v>2.10028663024226</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.5363238143217</v>
+        <v>24.09880612155597</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.76267729579057</v>
+        <v>16.6898845126037</v>
       </c>
       <c r="L23">
-        <v>10.60008831233058</v>
+        <v>8.399133144579512</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.66979434703008</v>
+        <v>14.50676296943012</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.79926858879234</v>
+        <v>18.89776847882607</v>
       </c>
       <c r="C24">
-        <v>5.295832284088608</v>
+        <v>8.349500284968771</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.503688673066307</v>
+        <v>6.487726760662789</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.725253273311026</v>
+        <v>2.113825147336892</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.56712519263147</v>
+        <v>23.70090701325151</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.53910199049862</v>
+        <v>15.39602283149173</v>
       </c>
       <c r="L24">
-        <v>10.56485930372254</v>
+        <v>8.021068523385127</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.75860771712702</v>
+        <v>14.84898189677257</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.45215718591767</v>
+        <v>17.29296426469361</v>
       </c>
       <c r="C25">
-        <v>5.01203897168057</v>
+        <v>7.488631555575694</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.499382796996708</v>
+        <v>6.244471443909004</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.73015940327246</v>
+        <v>2.128734710209359</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.62197828381396</v>
+        <v>23.35228572105395</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.3081025471622</v>
+        <v>14.16954089948015</v>
       </c>
       <c r="L25">
-        <v>10.53400554682491</v>
+        <v>7.617070641347549</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.86177187419883</v>
+        <v>15.23447453613165</v>
       </c>
       <c r="O25">
         <v>0</v>
